--- a/500all/speech_level/speeches_CHRG-114hhrg95223.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95223.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Weber. The Subcommittee on Energy will come to order. Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time which we might go ahead and do. Have you all eaten breakfast? So I want to thank you all for being here today.    Today's hearing is titled Innovations in Battery Storage for Renewable Energy.    I recognize myself for five minutes for an opening statement.    Today, we will hear from government and industry witnesses on the state of large-scale battery storage, and recent technology breakthroughs achieved through research and development at the national labs and universities around the country. Our witnesses today will also provide insight into how innovative companies are transitioning basic science research in battery storage technology to the energy marketplace.    Energy storage could revolutionize electricity generation and delivery in America. Cost-effective, large-scale batteries could change the way we power our homes, reduce infrastructure improvement costs, and allow renewable energy to add power to the electric grid without compromising reliability or increasing consumer costs. As a Texan, trust me, I know the value of reliable, affordable energy. With a population in Texas that is increasing by 1,000 people a day, or more, and energy-intensive industries driving consumption, Texas is by far the nation's largest consumer of electricity. The Texas economy needs reliable and affordable energy to power long-term growth, plain and simple. With battery storage technology, Texas could count on power from conventional and renewable energy sources regardless of the weather, saving money for Texas consumers and keeping the Texas power grid reliable and secure.    Although large-scale battery storage has been available for decades, there is still more work to be done. Fundamental research and development into the atomic and molecular structure of batteries is needed to better understand the operation, performance limitations, and the failures of battery technology. At our national labs, we have the facilities and expertise necessary to conduct this basic research. The private sector plays an instrumental role in commercializing next generation battery technology. Through partnerships with the national labs, innovative battery companies can take advantage of cutting-edge research and user facilities, and develop cost-effective, efficient energy storage technology that can compete in today's energy marketplace. Instead of duplicating deployment efforts that can be done by the private sector, the federal government should prioritize basic research and development on energy storage. This investment in energy storage technology R&amp;D can benefit all forms of energy while maintaining that reliability and the security of the nation's electric grid.    Current U.S. policy for advancing the deployment of renewable energy is built around federal subsidies and tax credits. But these policies only tend to increase costs for the American people, and are counterproductive to the development of battery storage technology that could make renewable power a good investment in the real world. By creating an incentive to invest in renewable energy deployment instead of energy storage, the federal government is actually steering investment away from battery storage technology. And the truth is, without affordable and efficient energy storage, renewable energy will never be able to match the efficiency, affordability, and reliability of fossil fuels. Instead, the federal government should end market-distorting subsidies and tax credits for the renewable energy industry, and allocate those resources to basic research and development necessary to solve the challenge of energy storage.    I want to thank our witnesses for testifying to the Committee today, and I look forward to a discussion about federal energy storage research and development, and the impact efficient and affordable batteries can have on energy reliability and security.    I now recognize the Ranking Member, the gentleman from Florida, for an opening statement.</t>
   </si>
   <si>
     <t>412276</t>
   </si>
   <si>
-    <t>Alan Grayson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grayson. Thank you, Chairman Weber, for holding this hearing. And thank you to our witnesses this morning for participating.    Today we'll be discussing energy storage and the potential benefits that can be gained by developing storage technologies. Energy storage has the potential to solve problems such as interruptions in power on the electric grid, we all know how frustrating and, at times, even dangerous a power outage can be, and to make intermittent renewable sources of energy more practical and affordable.    Energy storage allows the buying of energy when prices are low, and the selling of energy when prices are high. This capability can lead to a reduction in energy congestion on America's electrical infrastructure; lowering prices for consumers, and also potentially lowering utility revenues for providers. We have to plan that out accordingly. Well-placed storage units can eliminate the need for building additional transmission lines in some areas, saving consumers money. These challenges to existing energy infrastructure business models will grow as residential storage systems become more affordable.    Japan, according to Bloomberg Business, is said to spend $670 million in response to the grid issues that it's facing, so that it'll be able to accommodate the influx of renewable energy, which is often intermittently produced. In contrast, our Department of Energy's Office of Electricity Storage Program was funded at only $12 million; that's $670 million versus $12 million, for Fiscal Year 2015. We need to do better than this if we want to maintain a reliable, resilient electric grid that can accommodate the many new forms of energy production and storage that are emerging today. Lawrence Berkeley National Lab estimated the annual costs associated with interruptions in power are as high as $135 billion, and often it's the commercial and industrial sectors in our economy that bear those costs. In a future in which manufacturing processes increasingly rely on digital technology, even short, brief outages can dramatically impact production and sales.    Energy storage solutions provide a line of defense against the cost of an outage, and it is imperative that America be prepared to incorporate storage solutions into energy and electrical infrastructure. If we invest wisely, research programs in electrical and energy storage can help America move from our current 20th century energy grid to a future grid that delivers more and pollutes less.    And federally funded research has the potential to create new product lines, new business opportunities, and new international markets. Storage technology can make America's energy future arrive faster, and that's always our goal; to make the future arrive faster.    Again, I thank each of our witnesses for being here today, and I look forward to hearing what each of you has to say.    Thank you, Mr. Chairman. I yield back my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman. I thought I'd mention to members at least part of the reason and part of the genesis for this hearing today. A couple of years ago, I was meeting in my office with the author of a Pulitzer Prize-winning book on energy. His name is Daniel Yergin, and I suspect many of you have heard of him. He also happens to have been a college classmate. And I asked him what was the single most important thing we could do to help consumers with energy, and he replied, develop a better battery, or develop a battery that had better storage capability. And even though that conversation took place a couple of years ago, that really led to today's hearing. And so that's how important I think it is, and how important at least one other expert thinks the development of better battery storage is as well.    Mr. Chairman, today the Subcommittee on Energy will examine breakthrough technology in battery storage for renewable energy. Battery storage is the next frontier in energy research and development. Advanced batteries will help bring affordable renewable energy to the market without costly subsidies or renewable energy mandates. Forty-five percent of new U.S. power production last year came from wind turbines, while solar power made up 34 percent of new global power capacity. But without the capacity to efficiently store the energy produced when the sun isn't shining and the wind isn't blowing, renewable energy makes a minimal contribution to America's electricity needs. Advanced battery technology will enable utilities to store and deliver power produced by renewable energy. This will allow us to take advantage of energy from the diverse natural resources available across the country.    My home State of Texas offers a ready example of the impact battery storage could have on harnessing renewable power. Texas is the top wind producing state in the country. The Lone Star State currently operates more than 12,000 megawatts of utility-scale wind capacity; about 1/5 of the total wind capacity in the United States. In ideal circumstances, wind generates up to 18 percent of Texas' power. But even with this significant capacity, Texas wind energy cannot produce power on demand. And when energy needs are the highest, wind makes up just three percent of Texas power generation. Advanced battery technology could help the United States meet its energy needs and effectively manage its power production when conventional and renewable energy resources, which will save money for energy consumers. Federal research and development can build the foundation for the next breakthrough in battery technology.    Mr. Chairman, I know votes have been cast, so if--I'd like to ask unanimous consent that the rest of my opening statement be made a part of the record so that we can at least get our witnesses introduced before we need to leave for votes, and then I know Members will return after that.    I will yield back.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>412600</t>
   </si>
   <si>
-    <t>Katherine M. Clark</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman.    It is my pleasure to introduce Mr. Phil Giudice, the CEO of Ambri, and a constituent of mine from Wayland, Massachusetts. Ambri is a technology company in Massachusetts that is creating cost-effective and reliable battery technology that has the potential to revolutionize the grid. Phil, in addition to leading Ambri, has more than 30 years of experience throughout the energy industry. He has worked as a geologist, a consultant, a manager, and a public servant. I will highlight just a few of his many, many accomplishments on his resume. Phil is a Board Member for FirstFuel, an efficiency startup; Advanced Energy Economy, an energy business leadership trade group; and the New England Clean Energy Council. He was an appointee to the Department of Energy's Energy Efficiency and Renewables Advisory Committee, as well as its State Energy Advisory Board. And he has served the Commonwealth as Undersecretary of Energy, and Commissioner of the State's Department of Energy Resources. I want to thank you, Phil, and the entire panel for joining us today, and we look forward to your testimony.    I yield back.</t>
   </si>
   <si>
@@ -103,36 +91,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Gyuk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Gyuk. Chairman Smith, Chairman Weber, Ranking Member Grayson, and Members of the Committee, thank you for your invitation to testify at today's hearing. I appreciate the opportunity to tell you about the energy storage program of DOE's Office of Electricity Delivery and Energy Reliability, and the serious efforts the program is making to address the challenges facing the widespread deployment of grid energy storage.    I am pleased to be part of this panel with some of my distinguished colleagues who have been great partners over the years.    Last week, the Administration released the first ever quadrennial energy review. The QER takes a broad look at the infrastructure used for the transmission storage and distribution of energy. Several of the QER findings and recommendations addressed the opportunities that grid energy storage can provide to modernize the electric grid.    Today, I would like to highlight our work over the last dozen years to develop energy storage technology, working on materials and devices, and to bring them into commercialization.    The program is firmly based on the knowledge and expertise of the National Laboratories. We work with Sandia, Pacific Northwest Laboratory and Oak Ridge in a fully integrated program which produces cutting-edge research focused on commercialization. And this focus on commercialization is essential. We also involve universities and industry as appropriate. We pursue a wide portfolio of technologies for a broad spectrum of applications. Some of the technologies we have studied include advanced lead carbon batteries, sodium ion systems, magnesium ion systems, and flow batteries involving vanadium, zinc iodide and organo-metallics. We bring promising chemistries all the way from basic investigations through device development, and into licensing and deployment.    I would like to share some success stories in deploying energy storage technologies, and then discuss how OE's program is addressing the major challenges.    At Notrees, a small town near Odessa in west Texas, we partnered with Duke Energy to build a 36 megawatt facility for wind smoothing and frequency regulation. The installation helped to inform the Texas Public Utility Commission on developing rules for ancillary services. Tehachapi, California, is the site of the world's largest wind field. But sometimes the wind blows and sometimes it doesn't, and so we partnered with Southern California Edison to build an eight megawatt, four hour lithium ion facility to mitigate the variable nature of the wind.    I believe strongly that federal programs need to work directly with the States, making the expertise developed by the national laboratories available to the public. For example, in Vermont, we are partnering with the Public Service Department to build a disaster-resilient micro-grid, combining four megawatts of storage with two megawatts of photovoltaics. During emergencies, the facility can function as a community shelter and maintain critical services indefinitely, even without input from the surrounding grid, which may well be down. In Detroit, we are exploring a community energy storage concept, incorporating reused electrical vehicle batteries. In Washington State, we are leveraging state funds to commercialize a battery technology that started with research at PNNL. Avista just inaugurated a one megawatt, three hour flow battery based on vanadium a few weeks ago, and two megawatts with Snohomish will soon follow. We will evaluate the operation of the facility, and make careful cost benefit evaluations.    DOE has developed a strategic energy storage plan which identifies four priorities, which form the framework for the OE Storage Program. One is lowering costs. That comes first. Two is validating reliability and safety. Three is helping to develop an equitable regulatory environment for storage. And four is furthering industry acceptance. The program has provided key leadership in establishing energy storage as an effective tool for promoting grid reliability, resilience, and better asset utilization of renewable Energy.    Although grid energy storage has made a credible beginning, much remains to be done. DOE looks forward to continuing this important work. As our electric grid evolves, we expect that energy storage will be an integral component in assuring that electricity delivery for communities, business, and industry will be more flexible, secure, reliable, and environmentally responsive.    Mr. Chairman, and members of the Committee, this completes my prepared statement. I will be happy to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank the doctor. And we're going to move to our second witness, Dr. Virden.</t>
   </si>
   <si>
-    <t>Virden</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Virden. Chairman Smith, Chairman Weber, Ranking Member Grayson, and Members of the Subcommittee, thank you for the opportunity to testify in today's hearing.    My primary message today is that, even with the tremendous amount of excitement about the emerging U.S. energy storage market, there is still plenty of need for R&amp;D innovations that increase performance, reduce lifecycle costs, and improve safety of the next generation of battery storage technologies. The presence of Aquion and Ambri here are evidence to the role of innovative researchers. For our part, I am very proud of PNNL's battery scientists and engineers who have produced close to 300 publications, have filed 91 United States patents, with 19 granted so far, and seven licenses to U.S.-based companies in Washington State, California, and Massachusetts. One of these companies, Unit Energy Technologies, or UET, was started by two former PNNL employees, scientists, in 2012. UET has grown to 50 employees, and they are now deploying their novel redox flow battery technology in Washington, California, and Germany.    PNNL recently published the first Institute Scientific Investigation, looking at the atomic level changes in lithium ion batteries that enabled us to visualize why they short-out and fail. The expected lifetime of lithium ion battery systems today is generally believed to be 5 to 7 years, and grid storage batteries will need to last ideally 15 to 20 years. This groundbreaking work also confirmed a new approach that might dramatically extend the lifetime of lithium ion batteries. But despite all these advances, we still have fundamental gaps in our understanding of the basic processes that influence battery operation, performance, limitations, and failures.    As you know, renewable energy creates many challenges for grid operations. Their generation profile does not match up exactly with demand, and their generation is intermittent. In the Pacific Northwest, we have five gigawatts of wind, and sometimes hundreds of megawatts or even gigawatts of RAMs. Texas has the same problem with wind, and California with solar. Battery storage could solve these problems by smoothing out the intermittent generation, and storing energy off-peak to be used later when it was most needed. Several of our PNNL studies have concluded that for battery storage to be viable, it must serve multiple grid applications, such as meeting energy demands minute-by-minute, hour-by-hour, storing renewable energy at night for use the next day, as well as deferring transmission and distribution upgrades. Utilities would like battery storage to deliver both high power and lots of energy. This is like wanting a car that has the power of a Corvette, the fuel efficiency of a Chevy Malibu, and the price tag of a Chevy Spark. This is hard to do. No one battery delivers both high power and high energy, at least not very well or for very long. There are many different types of battery chemistries and sizes of batteries. In demonstrations around the country, I have counted over 13 different types and sizes of batteries being explored. All are in different stages of development, validation, and demonstration for grid applications.    While today's batteries can address the higher value-added grid applications, the cost of batteries need to be reduced, the lifetime expanded, and the safety validated. We believe there are three key research and development challenges that need to be addressed to significantly improve existing advanced battery systems in the near term, along with the longer term development of the next generation, lower cost battery systems.    First, to provide confidence to utilities that new battery technologies will meet multiple grid applications, we need independent testing and evaluation of energy storage facilities to validate performance and safety, along with the continued development of codes and standards that allow interoperability between different technologies and software.    Secondly, continued support for basic and applied R&amp;D is needed to discover new battery systems, and to better understand and predict why batteries don't perform as expected, why performance degrades over time, or why they fail. Universities and national labs across the country are well positioned to address the gap in our lack of fundamental understanding.    Finally, as new technologies make it out of the lab, we will need regional field demonstrations that validate the lifecycle costs, performance, safety, and overall impact on--batteries will have on reliability, resiliency, and renewable integration. This information is critical to feed back to those developing the next generation of batteries.    Thank you for the opportunity to testify, and I'd be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Dr. Virden. Mr. Giudice, you are recognized for five minutes.</t>
   </si>
   <si>
-    <t>Giudice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Giudice. Thank you, Chairman Weber, Chairman Smith, and Ranking Member Grayson, I appreciate the opportunity to testify today.    I'm the CEO, President, Board Member of Ambri, and as you know by having this hearing, energy storage has the potential to transform our electricity grid in very positive and productive ways. Right now, the grid needs to meet, for every instant of the day, everywhere, the supply of electricity with the demand for electricity, and storage will change everything.    Today in the United States, one of the ways we meet our peak demand is through simple cycle combustion turbines, and the capacity factor for those engines is two percent. Literally only 160 hours a year are those engines being driven to meet the peak demands, and storage could change everything. If we are able to meet average demand instead of peak demand, we could actually reduce the amount of grid infrastructure investment by approximately 1/2 of what our traditional market is.    So there are many different ways that storage could help. I'm going to suggest six different areas for federal government leadership that would be particularly of interest, and I'll give you a little story about Ambri in the context of that.    First is ARPA-E Programs. So ARPA-E funded campus research at MIT, Dr. Sadoway, to look at a very interesting application for the--his life's work, which was electrometallurgical refining. And basically, he took the same kinds of processes that are known in the aluminum smelter world of taking a ton of dirt and running electricity through it to produce pure aluminum metal at 50 cents a pound, and said what if we could make those processes reversible so that we're not only taking enormous amounts of electricity off the grid, but we could turn around and put it back on the grid. And it was kind of an interesting concept, a White Paper sort of exercise, a--that attracted funding from ARPA-E in 2007/2008 time frame. The $7 million grant from ARPA-E made all the difference in the world. This was a concept that there was no private money, no other public money, that was willing to step up and see if this idea could work. With that investment, plus other private sources, Dr. Sadoway, and then Dr. Bradwell, were able to drive research on campus to actually prove that this concept works, and works rather remarkably. They had a team that was up to 20 folks on campus advancing this technology, which then enabled the company to come together as a private enterprise and seek private financing. We are now 50 people, and completely privately financed with investments from Bill Gates, Total, Khosla Ventures, the--KLP Enterprises and GVB, and we employ 50 folks and we're out there now delivering our technology to the marketplace. So we're--we were formed in 2010, we're just now manufacturing our prototypes, and we'll begin delivering them this fall. And those go to very interesting customers, including the U.S. Department of Defense in Massachusetts and Connecticut, the Joint Base Cape Cod and sub-base in Groton, Connecticut, Con Ed in New York, Alaska Energy Authority in Alaska, and then in Hawaii, two prototypes are going--are scheduled to go there end of this year/beginning of next year, as well as our first 1 megawatt hour battery storage solution to the U.S. Navy at Pearl Harbor towards the end of 2016.    So this federal money that was able to sort of get behind a concept, and become sort of an interesting possible technology, is now developing itself and being delivered into the commercial marketplace, and looking very, very attractive.    So one role I encourage is continued support for ARPA-E and the work that they're doing. Another--five other possibilities include continued support on demonstration projects through the Department of Defense and the Department of Energy. Third is to continue work with States and Federal Energy Regulatory Commission to help them understand and appreciate the full value of storage. There's a very clear and compelling need between States' roles and rights, and the federal government in terms of helping to educate and appreciate the value that storage can provide. And then two other areas I'd touch on. One is the Loan Guarantee Program which, of course, has gotten a lot of coverage, I think plays a very interesting role and could be very helpful for storage, both from manufacturing and demonstration projects. Federal tax credits and--including in master limited partnership clean energy investments as possibilities to help this nascent technology that the United States, in fact, has the best research going on and the best new companies starting to really bear full fruit and become a world-dominant provider.    So I am excited to be here today, and look forward to taking any questions that you might have. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Mr. Giudice. Dr. Whitacre, you're up.</t>
   </si>
   <si>
-    <t>Whitacre</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Whitacre. Mr. Chairman, members of the Committee, thank you for inviting me to speak today on the innovation and grid scale energy storage. I also want to acknowledge the Bipartisan Center's American Energy Innovation Council for working with your staff on setting up this important hearing.    I am the Founder and Chief Technology Officer of Aquion Energy. I am also still a Professor of Materials Science and Engineering, and Engineering Public Policy at Carnegie Mellon University.    Seven years ago, I set out to solve the problem of making large-scale energy storage systems that are high-performance, safe, sustainable, and cost-effective. The solution we developed is an Aqueous Hybrid Ion intercalation battery, which is a mouthful, I know, but it's simple. It uses a saltwater electrolyte, manganese oxide cathode, carbon composite anode, and synthetic cotton separator. We chose these materials because they are made from safe, cheap, and abundant elements which will make a technology cost of around $100 per kilowatt hour achievable when produced at scale. The battery performs remarkably well; providing long-duration discharges of up to 20 continuous hours, while maintaining performance over thousands of cycles and, thus, many years of operation.    We now have over 130 employees and a full-scale manufacturing facility in western Pennsylvania, as well as a satellite office in Boston. We have been shipping product to customers since mid-2014, and our batteries are now deployed or under testing with service provides in 18 States, who serve, in theory, millions of customers. Our products have also been exported overseas to Germany, Australia, Malaysia, the UK, and the Philippines, among other locations.    The story of Aquion is indicative of the kind of public-private partnership behind many game-changing energy technologies. The idea for Aquion's battery came out of my research at Carnegie Mellon, which was actually informed by my seven years working as a Senior Staff Scientist at NASA's Jet Propulsion Laboratory. Shortly after arriving at Carnegie Mellon, I started a small exploratory project on this sodium ion battery chemistry that resulted in some key early results. This allowed me to garner some seed funding from a venture capital firm that allowed me to incubate the concept at university for a year or so, until some critical performance goals were achieved in the lab. At that point, we decided to try and start a real company. At the same time, we applied for and received Department of Energy funding, which was matched by private investors. Set up the facility, focused on prototyping battery units, build a pilot-scale production line, and demonstrate performance in a grid-connected environment. Additionally, that funding supported continuing basic research at Carnegie Mellon; the results of which helped us refine the technology and our manufacturing processes at the company. After pilot production and demonstrating the performance of the technology, Aquion was able to raise multiple rounds of private investment that has allowed us to scale and commercialize our batteries.    Without this DOE partnership, our early days would have been far more challenging, and perhaps Aquion would not have made it this far. My decision to--back in 2008 to spin out the company was wrought with risk. Aquion had to cross that pre-revenue valley of death where we're spending a tremendous amount of money and time to turn lab results into something that was a bankable technology, while--at the same time, while the technology and the manufacturing piece is not well defined.    It is very challenging to find private investors who can stomach this much risk. A handful exist, but by themselves, it's rare for them to--to them to actually double-down and make it happen. And it's even more difficult to get--net new technologies like ours and Ambri's scale--to the scale that it's been done without this kind of support.    The partnership I had with DOE was critical for getting across this chasm, from a research concept to a marketable product with proven performance. Furthermore, we continue to collaborate with the DOE. We're actively testing various generations of our products, and have partnered with us to develop large, in-house energy storage test beds.    What can be done by the DOE and national labs to advance other breakthroughs? The DOE has a solid track record of encouraging good ideas and funding projects that can result in a significant impact. However, one key aspect that is often overlooked early in the technology development process is the difficulty of scaling and manufacturing. Since all new energy technologies will be both materials and manufacturing-intensive, focusing more on these aspects of the process early on would increase the success rate of translating lab results into market products. There is still a tremendous amount of important and interesting fundamental science and engineering to be done during the process scale-up and manufacturing side of any new energy storage technology. I would, therefore, encourage the DOE and the national labs to incorporate the considerations of scalability early in the technology development process, such that they are focused not only on what benchtop solutions make sense, but also how to turn a benchtop solution into a scaled, mass-produced and relevant technology.    Thank you for the opportunity to share Aquion's story, and the attention you are devoting to energy technology and development.</t>
   </si>
   <si>
@@ -277,9 +253,6 @@
     <t>412503</t>
   </si>
   <si>
-    <t>Thomas Massie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Massie. Thank you, Mr. Chairman. I drove an 85 kilowatt hour battery here this morning. It has four wheels. And that's probably the way to look at it; it's a rolling battery.    Before I ask some questions about batteries, I want to ask Dr. Whitacre and Mr. Giudice about the role that patents play in commercializing technology. I think this is something that a lot of my colleagues here in Congress don't fully appreciate why these are in our Constitution, but can you tell me do patents help or hinder you in your quest to commercialize this technology?</t>
   </si>
   <si>
@@ -329,9 +302,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. The gentleman yields back.    The gentleman from California is recognized. Or--I'm--yeah, that's right. Go ahead, Mark.</t>
-  </si>
-  <si>
-    <t>Takano</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Takano. Yeah. Thank you, Mr. Chairman. I also appreciate the Subcommittee's indulgence to allow me to join today. Mr. Chairman, I appreciate the opportunity.    Mr. Giudice, last week the majority passed a bill out of our Committee that would have cut--that did cut funding for ARPA-E by 50 percent. In contrast, your testimony strongly recommends increasing our support for the agency, and provides an excellent example of the critical role that ARPA-E now plays in advancing new grid-scale energy storage technologies. Can you explain why you believe that ARPA-E is such an important part of our nation's energy innovation ecosystem?</t>
@@ -1042,11 +1012,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1066,13 +1034,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1094,11 +1060,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1118,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1146,11 +1108,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1172,11 +1132,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1196,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1224,11 +1180,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1250,11 +1204,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1274,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1302,11 +1252,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1326,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1354,11 +1300,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1378,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1406,11 +1348,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1430,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1458,11 +1396,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1482,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1510,11 +1444,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1534,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1562,11 +1492,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1586,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1614,11 +1540,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1638,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1666,11 +1588,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1690,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1718,11 +1636,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1742,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1770,11 +1684,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1794,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1822,11 +1732,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1846,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1874,11 +1780,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1898,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1926,11 +1828,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1950,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1978,11 +1876,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2002,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2030,11 +1924,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2054,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2082,11 +1972,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2106,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2134,11 +2020,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2158,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2184,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2210,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2236,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2262,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2288,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2314,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2340,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2366,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2392,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2418,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2446,11 +2308,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2470,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2498,11 +2356,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2522,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2548,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2574,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2600,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2626,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2654,11 +2500,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2678,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2704,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2730,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2756,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2782,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2808,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2834,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2860,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2886,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
         <v>87</v>
-      </c>
-      <c r="H73" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2912,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2938,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2964,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2990,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3016,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3042,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3068,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3094,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>86</v>
-      </c>
-      <c r="G81" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3122,11 +2932,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3146,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3172,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3198,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3224,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3250,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3276,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
-      </c>
-      <c r="G88" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3302,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3328,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
-      </c>
-      <c r="G90" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3354,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
-      </c>
-      <c r="G91" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3380,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
-      </c>
-      <c r="G92" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3406,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
-      </c>
-      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
         <v>105</v>
-      </c>
-      <c r="H93" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3432,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3458,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3484,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3510,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
-      </c>
-      <c r="G97" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3538,11 +3316,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3562,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3588,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3614,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3640,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
-      </c>
-      <c r="G102" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3666,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3692,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G104" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3718,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3744,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G106" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3770,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3796,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>28</v>
-      </c>
-      <c r="G108" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3822,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3848,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G110" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3874,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3900,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3926,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3952,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
-      </c>
-      <c r="G114" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3978,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4004,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
-      </c>
-      <c r="G116" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4030,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4056,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4082,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4108,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
-      </c>
-      <c r="G120" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4134,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4160,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G122" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4186,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4212,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G124" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4238,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4264,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
-      </c>
-      <c r="G126" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4290,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4316,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
-      </c>
-      <c r="G128" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4342,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4368,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>86</v>
-      </c>
-      <c r="G130" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4394,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>28</v>
-      </c>
-      <c r="G131" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4420,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>86</v>
-      </c>
-      <c r="G132" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4446,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>28</v>
-      </c>
-      <c r="G133" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4472,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>86</v>
-      </c>
-      <c r="G134" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4498,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>28</v>
-      </c>
-      <c r="G135" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4524,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>86</v>
-      </c>
-      <c r="G136" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4550,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
-      </c>
-      <c r="G137" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4576,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>86</v>
-      </c>
-      <c r="G138" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4602,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>28</v>
-      </c>
-      <c r="G139" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4628,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
-      </c>
-      <c r="G140" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4654,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>28</v>
-      </c>
-      <c r="G141" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4680,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
-      </c>
-      <c r="G142" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4706,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
-      </c>
-      <c r="G143" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4732,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
-      </c>
-      <c r="G144" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4758,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
-      </c>
-      <c r="G145" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4784,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>86</v>
-      </c>
-      <c r="G146" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4810,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>86</v>
-      </c>
-      <c r="G147" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4836,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
-      </c>
-      <c r="G148" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4862,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>86</v>
-      </c>
-      <c r="G149" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4888,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>28</v>
-      </c>
-      <c r="G150" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4914,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>86</v>
-      </c>
-      <c r="G151" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4940,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
-      </c>
-      <c r="G152" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4966,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>86</v>
-      </c>
-      <c r="G153" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4992,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
-      </c>
-      <c r="G154" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5018,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>86</v>
-      </c>
-      <c r="G155" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5044,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>28</v>
-      </c>
-      <c r="G156" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5070,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>86</v>
-      </c>
-      <c r="G157" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5096,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>28</v>
-      </c>
-      <c r="G158" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5122,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>86</v>
-      </c>
-      <c r="G159" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5148,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
-      </c>
-      <c r="G160" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5174,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>86</v>
-      </c>
-      <c r="G161" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5200,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5226,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>86</v>
-      </c>
-      <c r="G163" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5252,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
-      </c>
-      <c r="G164" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5278,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>86</v>
-      </c>
-      <c r="G165" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5304,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
-      </c>
-      <c r="G166" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5330,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>86</v>
-      </c>
-      <c r="G167" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5356,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>28</v>
-      </c>
-      <c r="G168" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5382,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>86</v>
-      </c>
-      <c r="G169" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5408,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>28</v>
-      </c>
-      <c r="G170" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5434,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>86</v>
-      </c>
-      <c r="G171" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5460,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5486,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>28</v>
-      </c>
-      <c r="G173" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5512,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5538,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>28</v>
-      </c>
-      <c r="G175" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5564,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5590,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>28</v>
-      </c>
-      <c r="G177" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5616,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5642,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>28</v>
-      </c>
-      <c r="G179" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5668,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5694,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>28</v>
-      </c>
-      <c r="G181" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5720,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5746,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>28</v>
-      </c>
-      <c r="G183" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5772,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5798,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>28</v>
-      </c>
-      <c r="G185" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5824,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5850,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>28</v>
-      </c>
-      <c r="G187" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5876,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5902,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>28</v>
-      </c>
-      <c r="G189" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5928,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5954,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>86</v>
-      </c>
-      <c r="G191" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5980,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>28</v>
-      </c>
-      <c r="G192" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6006,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>86</v>
-      </c>
-      <c r="G193" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6032,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>28</v>
-      </c>
-      <c r="G194" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6058,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>28</v>
-      </c>
-      <c r="G195" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6084,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>28</v>
-      </c>
-      <c r="G196" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6110,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>86</v>
-      </c>
-      <c r="G197" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95223.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95223.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Weber. The Subcommittee on Energy will come to order. Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time which we might go ahead and do. Have you all eaten breakfast? So I want to thank you all for being here today.    Today's hearing is titled Innovations in Battery Storage for Renewable Energy.    I recognize myself for five minutes for an opening statement.    Today, we will hear from government and industry witnesses on the state of large-scale battery storage, and recent technology breakthroughs achieved through research and development at the national labs and universities around the country. Our witnesses today will also provide insight into how innovative companies are transitioning basic science research in battery storage technology to the energy marketplace.    Energy storage could revolutionize electricity generation and delivery in America. Cost-effective, large-scale batteries could change the way we power our homes, reduce infrastructure improvement costs, and allow renewable energy to add power to the electric grid without compromising reliability or increasing consumer costs. As a Texan, trust me, I know the value of reliable, affordable energy. With a population in Texas that is increasing by 1,000 people a day, or more, and energy-intensive industries driving consumption, Texas is by far the nation's largest consumer of electricity. The Texas economy needs reliable and affordable energy to power long-term growth, plain and simple. With battery storage technology, Texas could count on power from conventional and renewable energy sources regardless of the weather, saving money for Texas consumers and keeping the Texas power grid reliable and secure.    Although large-scale battery storage has been available for decades, there is still more work to be done. Fundamental research and development into the atomic and molecular structure of batteries is needed to better understand the operation, performance limitations, and the failures of battery technology. At our national labs, we have the facilities and expertise necessary to conduct this basic research. The private sector plays an instrumental role in commercializing next generation battery technology. Through partnerships with the national labs, innovative battery companies can take advantage of cutting-edge research and user facilities, and develop cost-effective, efficient energy storage technology that can compete in today's energy marketplace. Instead of duplicating deployment efforts that can be done by the private sector, the federal government should prioritize basic research and development on energy storage. This investment in energy storage technology R&amp;D can benefit all forms of energy while maintaining that reliability and the security of the nation's electric grid.    Current U.S. policy for advancing the deployment of renewable energy is built around federal subsidies and tax credits. But these policies only tend to increase costs for the American people, and are counterproductive to the development of battery storage technology that could make renewable power a good investment in the real world. By creating an incentive to invest in renewable energy deployment instead of energy storage, the federal government is actually steering investment away from battery storage technology. And the truth is, without affordable and efficient energy storage, renewable energy will never be able to match the efficiency, affordability, and reliability of fossil fuels. Instead, the federal government should end market-distorting subsidies and tax credits for the renewable energy industry, and allocate those resources to basic research and development necessary to solve the challenge of energy storage.    I want to thank our witnesses for testifying to the Committee today, and I look forward to a discussion about federal energy storage research and development, and the impact efficient and affordable batteries can have on energy reliability and security.    I now recognize the Ranking Member, the gentleman from Florida, for an opening statement.</t>
   </si>
   <si>
     <t>412276</t>
   </si>
   <si>
+    <t>Grayson</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grayson. Thank you, Chairman Weber, for holding this hearing. And thank you to our witnesses this morning for participating.    Today we'll be discussing energy storage and the potential benefits that can be gained by developing storage technologies. Energy storage has the potential to solve problems such as interruptions in power on the electric grid, we all know how frustrating and, at times, even dangerous a power outage can be, and to make intermittent renewable sources of energy more practical and affordable.    Energy storage allows the buying of energy when prices are low, and the selling of energy when prices are high. This capability can lead to a reduction in energy congestion on America's electrical infrastructure; lowering prices for consumers, and also potentially lowering utility revenues for providers. We have to plan that out accordingly. Well-placed storage units can eliminate the need for building additional transmission lines in some areas, saving consumers money. These challenges to existing energy infrastructure business models will grow as residential storage systems become more affordable.    Japan, according to Bloomberg Business, is said to spend $670 million in response to the grid issues that it's facing, so that it'll be able to accommodate the influx of renewable energy, which is often intermittently produced. In contrast, our Department of Energy's Office of Electricity Storage Program was funded at only $12 million; that's $670 million versus $12 million, for Fiscal Year 2015. We need to do better than this if we want to maintain a reliable, resilient electric grid that can accommodate the many new forms of energy production and storage that are emerging today. Lawrence Berkeley National Lab estimated the annual costs associated with interruptions in power are as high as $135 billion, and often it's the commercial and industrial sectors in our economy that bear those costs. In a future in which manufacturing processes increasingly rely on digital technology, even short, brief outages can dramatically impact production and sales.    Energy storage solutions provide a line of defense against the cost of an outage, and it is imperative that America be prepared to incorporate storage solutions into energy and electrical infrastructure. If we invest wisely, research programs in electrical and energy storage can help America move from our current 20th century energy grid to a future grid that delivers more and pollutes less.    And federally funded research has the potential to create new product lines, new business opportunities, and new international markets. Storage technology can make America's energy future arrive faster, and that's always our goal; to make the future arrive faster.    Again, I thank each of our witnesses for being here today, and I look forward to hearing what each of you has to say.    Thank you, Mr. Chairman. I yield back my time.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman. I thought I'd mention to members at least part of the reason and part of the genesis for this hearing today. A couple of years ago, I was meeting in my office with the author of a Pulitzer Prize-winning book on energy. His name is Daniel Yergin, and I suspect many of you have heard of him. He also happens to have been a college classmate. And I asked him what was the single most important thing we could do to help consumers with energy, and he replied, develop a better battery, or develop a battery that had better storage capability. And even though that conversation took place a couple of years ago, that really led to today's hearing. And so that's how important I think it is, and how important at least one other expert thinks the development of better battery storage is as well.    Mr. Chairman, today the Subcommittee on Energy will examine breakthrough technology in battery storage for renewable energy. Battery storage is the next frontier in energy research and development. Advanced batteries will help bring affordable renewable energy to the market without costly subsidies or renewable energy mandates. Forty-five percent of new U.S. power production last year came from wind turbines, while solar power made up 34 percent of new global power capacity. But without the capacity to efficiently store the energy produced when the sun isn't shining and the wind isn't blowing, renewable energy makes a minimal contribution to America's electricity needs. Advanced battery technology will enable utilities to store and deliver power produced by renewable energy. This will allow us to take advantage of energy from the diverse natural resources available across the country.    My home State of Texas offers a ready example of the impact battery storage could have on harnessing renewable power. Texas is the top wind producing state in the country. The Lone Star State currently operates more than 12,000 megawatts of utility-scale wind capacity; about 1/5 of the total wind capacity in the United States. In ideal circumstances, wind generates up to 18 percent of Texas' power. But even with this significant capacity, Texas wind energy cannot produce power on demand. And when energy needs are the highest, wind makes up just three percent of Texas power generation. Advanced battery technology could help the United States meet its energy needs and effectively manage its power production when conventional and renewable energy resources, which will save money for energy consumers. Federal research and development can build the foundation for the next breakthrough in battery technology.    Mr. Chairman, I know votes have been cast, so if--I'd like to ask unanimous consent that the rest of my opening statement be made a part of the record so that we can at least get our witnesses introduced before we need to leave for votes, and then I know Members will return after that.    I will yield back.</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>412600</t>
   </si>
   <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman.    It is my pleasure to introduce Mr. Phil Giudice, the CEO of Ambri, and a constituent of mine from Wayland, Massachusetts. Ambri is a technology company in Massachusetts that is creating cost-effective and reliable battery technology that has the potential to revolutionize the grid. Phil, in addition to leading Ambri, has more than 30 years of experience throughout the energy industry. He has worked as a geologist, a consultant, a manager, and a public servant. I will highlight just a few of his many, many accomplishments on his resume. Phil is a Board Member for FirstFuel, an efficiency startup; Advanced Energy Economy, an energy business leadership trade group; and the New England Clean Energy Council. He was an appointee to the Department of Energy's Energy Efficiency and Renewables Advisory Committee, as well as its State Energy Advisory Board. And he has served the Commonwealth as Undersecretary of Energy, and Commissioner of the State's Department of Energy Resources. I want to thank you, Phil, and the entire panel for joining us today, and we look forward to your testimony.    I yield back.</t>
   </si>
   <si>
@@ -91,24 +118,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Gyuk</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Gyuk. Chairman Smith, Chairman Weber, Ranking Member Grayson, and Members of the Committee, thank you for your invitation to testify at today's hearing. I appreciate the opportunity to tell you about the energy storage program of DOE's Office of Electricity Delivery and Energy Reliability, and the serious efforts the program is making to address the challenges facing the widespread deployment of grid energy storage.    I am pleased to be part of this panel with some of my distinguished colleagues who have been great partners over the years.    Last week, the Administration released the first ever quadrennial energy review. The QER takes a broad look at the infrastructure used for the transmission storage and distribution of energy. Several of the QER findings and recommendations addressed the opportunities that grid energy storage can provide to modernize the electric grid.    Today, I would like to highlight our work over the last dozen years to develop energy storage technology, working on materials and devices, and to bring them into commercialization.    The program is firmly based on the knowledge and expertise of the National Laboratories. We work with Sandia, Pacific Northwest Laboratory and Oak Ridge in a fully integrated program which produces cutting-edge research focused on commercialization. And this focus on commercialization is essential. We also involve universities and industry as appropriate. We pursue a wide portfolio of technologies for a broad spectrum of applications. Some of the technologies we have studied include advanced lead carbon batteries, sodium ion systems, magnesium ion systems, and flow batteries involving vanadium, zinc iodide and organo-metallics. We bring promising chemistries all the way from basic investigations through device development, and into licensing and deployment.    I would like to share some success stories in deploying energy storage technologies, and then discuss how OE's program is addressing the major challenges.    At Notrees, a small town near Odessa in west Texas, we partnered with Duke Energy to build a 36 megawatt facility for wind smoothing and frequency regulation. The installation helped to inform the Texas Public Utility Commission on developing rules for ancillary services. Tehachapi, California, is the site of the world's largest wind field. But sometimes the wind blows and sometimes it doesn't, and so we partnered with Southern California Edison to build an eight megawatt, four hour lithium ion facility to mitigate the variable nature of the wind.    I believe strongly that federal programs need to work directly with the States, making the expertise developed by the national laboratories available to the public. For example, in Vermont, we are partnering with the Public Service Department to build a disaster-resilient micro-grid, combining four megawatts of storage with two megawatts of photovoltaics. During emergencies, the facility can function as a community shelter and maintain critical services indefinitely, even without input from the surrounding grid, which may well be down. In Detroit, we are exploring a community energy storage concept, incorporating reused electrical vehicle batteries. In Washington State, we are leveraging state funds to commercialize a battery technology that started with research at PNNL. Avista just inaugurated a one megawatt, three hour flow battery based on vanadium a few weeks ago, and two megawatts with Snohomish will soon follow. We will evaluate the operation of the facility, and make careful cost benefit evaluations.    DOE has developed a strategic energy storage plan which identifies four priorities, which form the framework for the OE Storage Program. One is lowering costs. That comes first. Two is validating reliability and safety. Three is helping to develop an equitable regulatory environment for storage. And four is furthering industry acceptance. The program has provided key leadership in establishing energy storage as an effective tool for promoting grid reliability, resilience, and better asset utilization of renewable Energy.    Although grid energy storage has made a credible beginning, much remains to be done. DOE looks forward to continuing this important work. As our electric grid evolves, we expect that energy storage will be an integral component in assuring that electricity delivery for communities, business, and industry will be more flexible, secure, reliable, and environmentally responsive.    Mr. Chairman, and members of the Committee, this completes my prepared statement. I will be happy to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank the doctor. And we're going to move to our second witness, Dr. Virden.</t>
   </si>
   <si>
+    <t>Virden</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Virden. Chairman Smith, Chairman Weber, Ranking Member Grayson, and Members of the Subcommittee, thank you for the opportunity to testify in today's hearing.    My primary message today is that, even with the tremendous amount of excitement about the emerging U.S. energy storage market, there is still plenty of need for R&amp;D innovations that increase performance, reduce lifecycle costs, and improve safety of the next generation of battery storage technologies. The presence of Aquion and Ambri here are evidence to the role of innovative researchers. For our part, I am very proud of PNNL's battery scientists and engineers who have produced close to 300 publications, have filed 91 United States patents, with 19 granted so far, and seven licenses to U.S.-based companies in Washington State, California, and Massachusetts. One of these companies, Unit Energy Technologies, or UET, was started by two former PNNL employees, scientists, in 2012. UET has grown to 50 employees, and they are now deploying their novel redox flow battery technology in Washington, California, and Germany.    PNNL recently published the first Institute Scientific Investigation, looking at the atomic level changes in lithium ion batteries that enabled us to visualize why they short-out and fail. The expected lifetime of lithium ion battery systems today is generally believed to be 5 to 7 years, and grid storage batteries will need to last ideally 15 to 20 years. This groundbreaking work also confirmed a new approach that might dramatically extend the lifetime of lithium ion batteries. But despite all these advances, we still have fundamental gaps in our understanding of the basic processes that influence battery operation, performance, limitations, and failures.    As you know, renewable energy creates many challenges for grid operations. Their generation profile does not match up exactly with demand, and their generation is intermittent. In the Pacific Northwest, we have five gigawatts of wind, and sometimes hundreds of megawatts or even gigawatts of RAMs. Texas has the same problem with wind, and California with solar. Battery storage could solve these problems by smoothing out the intermittent generation, and storing energy off-peak to be used later when it was most needed. Several of our PNNL studies have concluded that for battery storage to be viable, it must serve multiple grid applications, such as meeting energy demands minute-by-minute, hour-by-hour, storing renewable energy at night for use the next day, as well as deferring transmission and distribution upgrades. Utilities would like battery storage to deliver both high power and lots of energy. This is like wanting a car that has the power of a Corvette, the fuel efficiency of a Chevy Malibu, and the price tag of a Chevy Spark. This is hard to do. No one battery delivers both high power and high energy, at least not very well or for very long. There are many different types of battery chemistries and sizes of batteries. In demonstrations around the country, I have counted over 13 different types and sizes of batteries being explored. All are in different stages of development, validation, and demonstration for grid applications.    While today's batteries can address the higher value-added grid applications, the cost of batteries need to be reduced, the lifetime expanded, and the safety validated. We believe there are three key research and development challenges that need to be addressed to significantly improve existing advanced battery systems in the near term, along with the longer term development of the next generation, lower cost battery systems.    First, to provide confidence to utilities that new battery technologies will meet multiple grid applications, we need independent testing and evaluation of energy storage facilities to validate performance and safety, along with the continued development of codes and standards that allow interoperability between different technologies and software.    Secondly, continued support for basic and applied R&amp;D is needed to discover new battery systems, and to better understand and predict why batteries don't perform as expected, why performance degrades over time, or why they fail. Universities and national labs across the country are well positioned to address the gap in our lack of fundamental understanding.    Finally, as new technologies make it out of the lab, we will need regional field demonstrations that validate the lifecycle costs, performance, safety, and overall impact on--batteries will have on reliability, resiliency, and renewable integration. This information is critical to feed back to those developing the next generation of batteries.    Thank you for the opportunity to testify, and I'd be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Dr. Virden. Mr. Giudice, you are recognized for five minutes.</t>
   </si>
   <si>
+    <t>Giudice</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Giudice. Thank you, Chairman Weber, Chairman Smith, and Ranking Member Grayson, I appreciate the opportunity to testify today.    I'm the CEO, President, Board Member of Ambri, and as you know by having this hearing, energy storage has the potential to transform our electricity grid in very positive and productive ways. Right now, the grid needs to meet, for every instant of the day, everywhere, the supply of electricity with the demand for electricity, and storage will change everything.    Today in the United States, one of the ways we meet our peak demand is through simple cycle combustion turbines, and the capacity factor for those engines is two percent. Literally only 160 hours a year are those engines being driven to meet the peak demands, and storage could change everything. If we are able to meet average demand instead of peak demand, we could actually reduce the amount of grid infrastructure investment by approximately 1/2 of what our traditional market is.    So there are many different ways that storage could help. I'm going to suggest six different areas for federal government leadership that would be particularly of interest, and I'll give you a little story about Ambri in the context of that.    First is ARPA-E Programs. So ARPA-E funded campus research at MIT, Dr. Sadoway, to look at a very interesting application for the--his life's work, which was electrometallurgical refining. And basically, he took the same kinds of processes that are known in the aluminum smelter world of taking a ton of dirt and running electricity through it to produce pure aluminum metal at 50 cents a pound, and said what if we could make those processes reversible so that we're not only taking enormous amounts of electricity off the grid, but we could turn around and put it back on the grid. And it was kind of an interesting concept, a White Paper sort of exercise, a--that attracted funding from ARPA-E in 2007/2008 time frame. The $7 million grant from ARPA-E made all the difference in the world. This was a concept that there was no private money, no other public money, that was willing to step up and see if this idea could work. With that investment, plus other private sources, Dr. Sadoway, and then Dr. Bradwell, were able to drive research on campus to actually prove that this concept works, and works rather remarkably. They had a team that was up to 20 folks on campus advancing this technology, which then enabled the company to come together as a private enterprise and seek private financing. We are now 50 people, and completely privately financed with investments from Bill Gates, Total, Khosla Ventures, the--KLP Enterprises and GVB, and we employ 50 folks and we're out there now delivering our technology to the marketplace. So we're--we were formed in 2010, we're just now manufacturing our prototypes, and we'll begin delivering them this fall. And those go to very interesting customers, including the U.S. Department of Defense in Massachusetts and Connecticut, the Joint Base Cape Cod and sub-base in Groton, Connecticut, Con Ed in New York, Alaska Energy Authority in Alaska, and then in Hawaii, two prototypes are going--are scheduled to go there end of this year/beginning of next year, as well as our first 1 megawatt hour battery storage solution to the U.S. Navy at Pearl Harbor towards the end of 2016.    So this federal money that was able to sort of get behind a concept, and become sort of an interesting possible technology, is now developing itself and being delivered into the commercial marketplace, and looking very, very attractive.    So one role I encourage is continued support for ARPA-E and the work that they're doing. Another--five other possibilities include continued support on demonstration projects through the Department of Defense and the Department of Energy. Third is to continue work with States and Federal Energy Regulatory Commission to help them understand and appreciate the full value of storage. There's a very clear and compelling need between States' roles and rights, and the federal government in terms of helping to educate and appreciate the value that storage can provide. And then two other areas I'd touch on. One is the Loan Guarantee Program which, of course, has gotten a lot of coverage, I think plays a very interesting role and could be very helpful for storage, both from manufacturing and demonstration projects. Federal tax credits and--including in master limited partnership clean energy investments as possibilities to help this nascent technology that the United States, in fact, has the best research going on and the best new companies starting to really bear full fruit and become a world-dominant provider.    So I am excited to be here today, and look forward to taking any questions that you might have. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Mr. Giudice. Dr. Whitacre, you're up.</t>
   </si>
   <si>
+    <t>Whitacre</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Whitacre. Mr. Chairman, members of the Committee, thank you for inviting me to speak today on the innovation and grid scale energy storage. I also want to acknowledge the Bipartisan Center's American Energy Innovation Council for working with your staff on setting up this important hearing.    I am the Founder and Chief Technology Officer of Aquion Energy. I am also still a Professor of Materials Science and Engineering, and Engineering Public Policy at Carnegie Mellon University.    Seven years ago, I set out to solve the problem of making large-scale energy storage systems that are high-performance, safe, sustainable, and cost-effective. The solution we developed is an Aqueous Hybrid Ion intercalation battery, which is a mouthful, I know, but it's simple. It uses a saltwater electrolyte, manganese oxide cathode, carbon composite anode, and synthetic cotton separator. We chose these materials because they are made from safe, cheap, and abundant elements which will make a technology cost of around $100 per kilowatt hour achievable when produced at scale. The battery performs remarkably well; providing long-duration discharges of up to 20 continuous hours, while maintaining performance over thousands of cycles and, thus, many years of operation.    We now have over 130 employees and a full-scale manufacturing facility in western Pennsylvania, as well as a satellite office in Boston. We have been shipping product to customers since mid-2014, and our batteries are now deployed or under testing with service provides in 18 States, who serve, in theory, millions of customers. Our products have also been exported overseas to Germany, Australia, Malaysia, the UK, and the Philippines, among other locations.    The story of Aquion is indicative of the kind of public-private partnership behind many game-changing energy technologies. The idea for Aquion's battery came out of my research at Carnegie Mellon, which was actually informed by my seven years working as a Senior Staff Scientist at NASA's Jet Propulsion Laboratory. Shortly after arriving at Carnegie Mellon, I started a small exploratory project on this sodium ion battery chemistry that resulted in some key early results. This allowed me to garner some seed funding from a venture capital firm that allowed me to incubate the concept at university for a year or so, until some critical performance goals were achieved in the lab. At that point, we decided to try and start a real company. At the same time, we applied for and received Department of Energy funding, which was matched by private investors. Set up the facility, focused on prototyping battery units, build a pilot-scale production line, and demonstrate performance in a grid-connected environment. Additionally, that funding supported continuing basic research at Carnegie Mellon; the results of which helped us refine the technology and our manufacturing processes at the company. After pilot production and demonstrating the performance of the technology, Aquion was able to raise multiple rounds of private investment that has allowed us to scale and commercialize our batteries.    Without this DOE partnership, our early days would have been far more challenging, and perhaps Aquion would not have made it this far. My decision to--back in 2008 to spin out the company was wrought with risk. Aquion had to cross that pre-revenue valley of death where we're spending a tremendous amount of money and time to turn lab results into something that was a bankable technology, while--at the same time, while the technology and the manufacturing piece is not well defined.    It is very challenging to find private investors who can stomach this much risk. A handful exist, but by themselves, it's rare for them to--to them to actually double-down and make it happen. And it's even more difficult to get--net new technologies like ours and Ambri's scale--to the scale that it's been done without this kind of support.    The partnership I had with DOE was critical for getting across this chasm, from a research concept to a marketable product with proven performance. Furthermore, we continue to collaborate with the DOE. We're actively testing various generations of our products, and have partnered with us to develop large, in-house energy storage test beds.    What can be done by the DOE and national labs to advance other breakthroughs? The DOE has a solid track record of encouraging good ideas and funding projects that can result in a significant impact. However, one key aspect that is often overlooked early in the technology development process is the difficulty of scaling and manufacturing. Since all new energy technologies will be both materials and manufacturing-intensive, focusing more on these aspects of the process early on would increase the success rate of translating lab results into market products. There is still a tremendous amount of important and interesting fundamental science and engineering to be done during the process scale-up and manufacturing side of any new energy storage technology. I would, therefore, encourage the DOE and the national labs to incorporate the considerations of scalability early in the technology development process, such that they are focused not only on what benchtop solutions make sense, but also how to turn a benchtop solution into a scaled, mass-produced and relevant technology.    Thank you for the opportunity to share Aquion's story, and the attention you are devoting to energy technology and development.</t>
   </si>
   <si>
@@ -253,6 +292,12 @@
     <t>412503</t>
   </si>
   <si>
+    <t>Massie</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Massie. Thank you, Mr. Chairman. I drove an 85 kilowatt hour battery here this morning. It has four wheels. And that's probably the way to look at it; it's a rolling battery.    Before I ask some questions about batteries, I want to ask Dr. Whitacre and Mr. Giudice about the role that patents play in commercializing technology. I think this is something that a lot of my colleagues here in Congress don't fully appreciate why these are in our Constitution, but can you tell me do patents help or hinder you in your quest to commercialize this technology?</t>
   </si>
   <si>
@@ -302,6 +347,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. The gentleman yields back.    The gentleman from California is recognized. Or--I'm--yeah, that's right. Go ahead, Mark.</t>
+  </si>
+  <si>
+    <t>Takano</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Takano. Yeah. Thank you, Mr. Chairman. I also appreciate the Subcommittee's indulgence to allow me to join today. Mr. Chairman, I appreciate the opportunity.    Mr. Giudice, last week the majority passed a bill out of our Committee that would have cut--that did cut funding for ARPA-E by 50 percent. In contrast, your testimony strongly recommends increasing our support for the agency, and provides an excellent example of the critical role that ARPA-E now plays in advancing new grid-scale energy storage technologies. Can you explain why you believe that ARPA-E is such an important part of our nation's energy innovation ecosystem?</t>
@@ -962,7 +1010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H197"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,7 +1018,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,4709 +1040,5500 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G60" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G62" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>92</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G67" t="s">
+        <v>92</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G69" t="s">
+        <v>92</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G71" t="s">
+        <v>92</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G73" t="s">
+        <v>92</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G75" t="s">
+        <v>92</v>
+      </c>
       <c r="H75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G77" t="s">
+        <v>92</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G78" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G79" t="s">
+        <v>92</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G81" t="s">
+        <v>92</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G83" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G84" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s">
+        <v>111</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s">
+        <v>111</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G88" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s">
+        <v>111</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G90" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G91" t="s">
+        <v>111</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G92" t="s">
+        <v>40</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s">
+        <v>111</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G94" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s">
+        <v>111</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s">
+        <v>40</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G97" t="s">
+        <v>111</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
       <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G100" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
       <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>22</v>
+      </c>
       <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G104" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>22</v>
+      </c>
       <c r="H105" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G106" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>22</v>
+      </c>
       <c r="H107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G108" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>22</v>
+      </c>
       <c r="H109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G110" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>22</v>
+      </c>
       <c r="H111" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G112" t="s">
+        <v>37</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>22</v>
+      </c>
       <c r="H113" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I113" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>22</v>
+      </c>
       <c r="H115" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G116" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>22</v>
+      </c>
       <c r="H117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G118" t="s">
+        <v>43</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>22</v>
+      </c>
       <c r="H119" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I119" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G120" t="s">
+        <v>43</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>22</v>
+      </c>
       <c r="H121" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I121" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G122" t="s">
+        <v>43</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>22</v>
+      </c>
       <c r="H123" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G124" t="s">
+        <v>40</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>22</v>
+      </c>
       <c r="H125" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I125" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G126" t="s">
+        <v>40</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>22</v>
+      </c>
       <c r="H127" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>22</v>
+      </c>
       <c r="H129" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>78</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G130" t="s">
+        <v>92</v>
+      </c>
       <c r="H130" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I130" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G131" t="s">
+        <v>111</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>78</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G132" t="s">
+        <v>92</v>
+      </c>
       <c r="H132" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I132" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G133" t="s">
+        <v>111</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>78</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G134" t="s">
+        <v>92</v>
+      </c>
       <c r="H134" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I134" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G135" t="s">
+        <v>111</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>78</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G136" t="s">
+        <v>92</v>
+      </c>
       <c r="H136" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I136" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>24</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G137" t="s">
+        <v>111</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>78</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G138" t="s">
+        <v>92</v>
+      </c>
       <c r="H138" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G139" t="s">
+        <v>111</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G140" t="s">
+        <v>43</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G141" t="s">
+        <v>111</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>24</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G142" t="s">
+        <v>40</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G143" t="s">
+        <v>37</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>24</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G145" t="s">
+        <v>111</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>78</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G146" t="s">
+        <v>92</v>
+      </c>
       <c r="H146" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>78</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G147" t="s">
+        <v>92</v>
+      </c>
       <c r="H147" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I147" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>24</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G148" t="s">
+        <v>40</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>78</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G149" t="s">
+        <v>92</v>
+      </c>
       <c r="H149" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I149" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>24</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G150" t="s">
+        <v>34</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>78</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G151" t="s">
+        <v>92</v>
+      </c>
       <c r="H151" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I151" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>24</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G152" t="s">
+        <v>34</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>78</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G153" t="s">
+        <v>92</v>
+      </c>
       <c r="H153" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I153" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>24</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G154" t="s">
+        <v>34</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>78</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G155" t="s">
+        <v>92</v>
+      </c>
       <c r="H155" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I155" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>24</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G156" t="s">
+        <v>34</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>78</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G157" t="s">
+        <v>92</v>
+      </c>
       <c r="H157" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I157" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>24</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G158" t="s">
+        <v>37</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>78</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G159" t="s">
+        <v>92</v>
+      </c>
       <c r="H159" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I159" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>24</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G160" t="s">
+        <v>37</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>78</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G161" t="s">
+        <v>92</v>
+      </c>
       <c r="H161" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I161" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s">
+        <v>17</v>
+      </c>
       <c r="H162" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I162" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>78</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G163" t="s">
+        <v>92</v>
+      </c>
       <c r="H163" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I163" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>24</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G164" t="s">
+        <v>43</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>78</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G165" t="s">
+        <v>92</v>
+      </c>
       <c r="H165" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I165" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>24</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G166" t="s">
+        <v>43</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>78</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G167" t="s">
+        <v>92</v>
+      </c>
       <c r="H167" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I167" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>24</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G168" t="s">
+        <v>43</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>78</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G169" t="s">
+        <v>92</v>
+      </c>
       <c r="H169" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I169" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>24</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G170" t="s">
+        <v>40</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>78</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G171" t="s">
+        <v>92</v>
+      </c>
       <c r="H171" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I171" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s">
+        <v>17</v>
+      </c>
       <c r="H172" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I172" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>24</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G173" t="s">
+        <v>43</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s">
+        <v>17</v>
+      </c>
       <c r="H174" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I174" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>24</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G175" t="s">
+        <v>40</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s">
+        <v>17</v>
+      </c>
       <c r="H176" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I176" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>24</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G177" t="s">
+        <v>37</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s">
+        <v>17</v>
+      </c>
       <c r="H178" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I178" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>24</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G179" t="s">
+        <v>34</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>13</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s">
+        <v>17</v>
+      </c>
       <c r="H180" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I180" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G181" t="s">
+        <v>43</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s">
+        <v>17</v>
+      </c>
       <c r="H182" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I182" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>24</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G183" t="s">
+        <v>43</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s">
+        <v>17</v>
+      </c>
       <c r="H184" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I184" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>24</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G185" t="s">
+        <v>40</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s">
+        <v>17</v>
+      </c>
       <c r="H186" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I186" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>24</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G187" t="s">
+        <v>37</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>13</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s">
+        <v>17</v>
+      </c>
       <c r="H188" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I188" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>24</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G189" t="s">
+        <v>34</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G190" t="s">
+        <v>17</v>
+      </c>
       <c r="H190" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I190" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>78</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G191" t="s">
+        <v>92</v>
+      </c>
       <c r="H191" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I191" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>24</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G192" t="s">
+        <v>111</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>78</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G193" t="s">
+        <v>92</v>
+      </c>
       <c r="H193" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I193" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G194" t="s">
+        <v>111</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>24</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G195" t="s">
+        <v>43</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>24</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G196" t="s">
+        <v>111</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>78</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G197" t="s">
+        <v>92</v>
+      </c>
       <c r="H197" t="s">
-        <v>199</v>
+        <v>93</v>
+      </c>
+      <c r="I197" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95223.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95223.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Weber</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412276</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Grayson</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
   </si>
   <si>
     <t>412600</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Clark</t>
@@ -1010,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:J197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,7 +1033,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,5497 +1058,5896 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" t="s">
-        <v>34</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" t="s">
-        <v>34</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
-      </c>
-      <c r="G66" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G67" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" t="s">
-        <v>43</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G69" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I69" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
-      </c>
-      <c r="G70" t="s">
-        <v>40</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G71" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G73" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
-      </c>
-      <c r="G74" t="s">
-        <v>34</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G75" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
-      </c>
-      <c r="G76" t="s">
-        <v>34</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G77" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
-      </c>
-      <c r="G78" t="s">
-        <v>34</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G79" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G81" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
-      </c>
-      <c r="G83" t="s">
-        <v>111</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>116</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
-      </c>
-      <c r="G84" t="s">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>45</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
-      </c>
-      <c r="G85" t="s">
-        <v>111</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>116</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
-      </c>
-      <c r="G86" t="s">
-        <v>40</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>45</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" t="s">
-        <v>111</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
-      </c>
-      <c r="G88" t="s">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>45</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
-      </c>
-      <c r="G89" t="s">
-        <v>111</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>116</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
-      </c>
-      <c r="G90" t="s">
-        <v>40</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>45</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G91" t="s">
-        <v>111</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>116</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
-      </c>
-      <c r="G92" t="s">
-        <v>40</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>45</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
-      </c>
-      <c r="G93" t="s">
-        <v>111</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>116</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
-      </c>
-      <c r="G94" t="s">
-        <v>40</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>45</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
-      </c>
-      <c r="G95" t="s">
-        <v>111</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>116</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
-      </c>
-      <c r="G96" t="s">
-        <v>40</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>45</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
-      </c>
-      <c r="G97" t="s">
-        <v>111</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>116</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G99" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H99" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
-      </c>
-      <c r="G100" t="s">
-        <v>34</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>39</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G101" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H101" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
-      </c>
-      <c r="G102" t="s">
-        <v>37</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>42</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G103" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H103" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
-      </c>
-      <c r="G104" t="s">
-        <v>37</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>42</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G105" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H105" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I105" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
-      </c>
-      <c r="G106" t="s">
-        <v>37</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>42</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G107" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H107" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
-      </c>
-      <c r="G108" t="s">
-        <v>37</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>42</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G109" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H109" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
-      </c>
-      <c r="G110" t="s">
-        <v>37</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>42</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G111" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H111" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G112" t="s">
-        <v>37</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>42</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G113" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I113" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
-      </c>
-      <c r="G114" t="s">
-        <v>37</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>42</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G115" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H115" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I115" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" t="s">
-        <v>37</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>42</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G117" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H117" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
-      </c>
-      <c r="G118" t="s">
-        <v>43</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>48</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G119" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H119" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
-      </c>
-      <c r="G120" t="s">
-        <v>43</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>48</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G121" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H121" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J121" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
-      </c>
-      <c r="G122" t="s">
-        <v>43</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>48</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G123" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H123" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I123" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
-      </c>
-      <c r="G124" t="s">
-        <v>40</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>45</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G125" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H125" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I125" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
-      </c>
-      <c r="G126" t="s">
-        <v>40</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>45</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G127" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H127" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I127" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
-      </c>
-      <c r="G128" t="s">
-        <v>34</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>39</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G129" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H129" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I129" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G130" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H130" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I130" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
-      </c>
-      <c r="G131" t="s">
-        <v>111</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>116</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G132" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H132" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I132" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
-      </c>
-      <c r="G133" t="s">
-        <v>111</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>116</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G134" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H134" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I134" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
-      </c>
-      <c r="G135" t="s">
-        <v>111</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>116</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G136" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H136" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I136" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
-      </c>
-      <c r="G137" t="s">
-        <v>111</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>116</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G138" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H138" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I138" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
-      </c>
-      <c r="G139" t="s">
-        <v>111</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>116</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
-      </c>
-      <c r="G140" t="s">
-        <v>43</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>48</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
-      </c>
-      <c r="G141" t="s">
-        <v>111</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>116</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
-      </c>
-      <c r="G142" t="s">
-        <v>40</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>45</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
-      </c>
-      <c r="G143" t="s">
-        <v>37</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>42</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
-      </c>
-      <c r="G144" t="s">
-        <v>34</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>39</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
-      </c>
-      <c r="G145" t="s">
-        <v>111</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>116</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G146" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H146" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I146" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G147" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H147" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I147" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
-      </c>
-      <c r="G148" t="s">
-        <v>40</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>45</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G149" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H149" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I149" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J149" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
-      </c>
-      <c r="G150" t="s">
-        <v>34</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>39</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G151" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H151" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I151" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J151" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
-      </c>
-      <c r="G152" t="s">
-        <v>34</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>39</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G153" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H153" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I153" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J153" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
-      </c>
-      <c r="G154" t="s">
-        <v>34</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>39</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G155" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H155" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I155" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J155" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
-      </c>
-      <c r="G156" t="s">
-        <v>34</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>39</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G157" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H157" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I157" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
-      </c>
-      <c r="G158" t="s">
-        <v>37</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>42</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G159" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H159" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I159" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J159" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
-      </c>
-      <c r="G160" t="s">
-        <v>37</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>42</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G161" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H161" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I161" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J161" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G162" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H162" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I162" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J162" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G163" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H163" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I163" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
-      </c>
-      <c r="G164" t="s">
-        <v>43</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>48</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G165" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H165" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I165" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J165" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
-      </c>
-      <c r="G166" t="s">
-        <v>43</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>48</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G167" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H167" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I167" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J167" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
-      </c>
-      <c r="G168" t="s">
-        <v>43</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>48</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G169" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H169" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I169" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J169" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
-      </c>
-      <c r="G170" t="s">
-        <v>40</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>45</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G171" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H171" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I171" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J171" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G172" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H172" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I172" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J172" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
-      </c>
-      <c r="G173" t="s">
-        <v>43</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>48</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G174" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H174" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I174" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J174" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
-      </c>
-      <c r="G175" t="s">
-        <v>40</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>45</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G176" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H176" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I176" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J176" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
-      </c>
-      <c r="G177" t="s">
-        <v>37</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>42</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G178" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H178" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I178" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J178" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
-      </c>
-      <c r="G179" t="s">
-        <v>34</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>39</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G180" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H180" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I180" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J180" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
-      </c>
-      <c r="G181" t="s">
-        <v>43</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>48</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G182" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H182" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I182" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J182" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
-      </c>
-      <c r="G183" t="s">
-        <v>43</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>48</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G184" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H184" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I184" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J184" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
-      </c>
-      <c r="G185" t="s">
-        <v>40</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>45</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G186" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H186" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I186" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J186" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
-      </c>
-      <c r="G187" t="s">
-        <v>37</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>42</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G188" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H188" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I188" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J188" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
-      </c>
-      <c r="G189" t="s">
-        <v>34</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>39</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G190" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H190" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I190" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J190" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G191" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H191" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I191" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J191" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
-      </c>
-      <c r="G192" t="s">
-        <v>111</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>116</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G193" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H193" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I193" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J193" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
-      </c>
-      <c r="G194" t="s">
-        <v>111</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>116</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
-      </c>
-      <c r="G195" t="s">
-        <v>43</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>48</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
-      </c>
-      <c r="G196" t="s">
-        <v>111</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>116</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G197" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H197" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I197" t="s">
-        <v>215</v>
+        <v>98</v>
+      </c>
+      <c r="J197" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
